--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 10.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 10.xlsx_with_dialog_acts.xlsx
@@ -1227,12 +1227,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2343,12 +2343,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3063,12 +3063,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3783,12 +3783,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4143,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4439,12 +4439,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4475,12 +4475,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4619,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4871,12 +4871,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5303,12 +5303,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6131,12 +6131,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6167,12 +6167,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6311,12 +6311,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6779,12 +6779,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8219,12 +8219,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
